--- a/실무_엑셀_예제_파일/Chapter07/07-011.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Google Drive\@ 오빠두 실무엑셀 - 출판\@ 예제파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AFC954-A49F-4F45-A10D-1470109FFF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90BE29A-5560-4C17-ADDD-0F600AFE469C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="840" windowWidth="18036" windowHeight="12312" xr2:uid="{272F9599-5CF1-42F4-B8DD-1FE7524495E9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{272F9599-5CF1-42F4-B8DD-1FE7524495E9}"/>
   </bookViews>
   <sheets>
     <sheet name="ST반도체" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ST반도체!$B$6:$F$18</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -270,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,20 +286,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,42 +612,42 @@
   <dimension ref="B1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="G7" sqref="G7:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="22.69921875" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.296875" customWidth="1"/>
-    <col min="6" max="6" width="13.796875" customWidth="1"/>
-    <col min="7" max="7" width="14.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.9140625" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="11" t="s">
+    <row r="1" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="7.8" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="D4" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:7" ht="7.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" ht="7.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G4" s="7">
+        <f ca="1">TODAY()</f>
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="7.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -682,149 +667,293 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D7" s="5" t="str">
+        <f>RIGHT(B7, 6)</f>
+        <v>150826</v>
+      </c>
+      <c r="E7" s="8">
+        <f>DATE(LEFT(D7,2) + 2000, MID(D7, 3, 2), RIGHT(D7, 2))</f>
+        <v>42242</v>
+      </c>
+      <c r="F7" s="5">
+        <f>YEAR(E7)</f>
+        <v>2015</v>
+      </c>
+      <c r="G7" s="9">
+        <f ca="1">$G$4-E7</f>
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D8" s="5" t="str">
+        <f t="shared" ref="D8:D18" si="0">RIGHT(B8, 6)</f>
+        <v>190121</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8:E18" si="1">DATE(LEFT(D8,2) + 2000, MID(D8, 3, 2), RIGHT(D8, 2))</f>
+        <v>43486</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F18" si="2">YEAR(E8)</f>
+        <v>2019</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" ref="G8:G18" ca="1" si="3">$G$4-E8</f>
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>160723</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>42574</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>161119</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>42693</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>2016</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>180807</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>43319</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>171206</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>43075</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>180331</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="1"/>
+        <v>43190</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>200325</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="1"/>
+        <v>43915</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>201027</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="1"/>
+        <v>44131</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="2"/>
+        <v>2020</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>150830</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="1"/>
+        <v>42246</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>180903</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="1"/>
+        <v>43346</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="2"/>
+        <v>2018</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="12"/>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>170827</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="1"/>
+        <v>42974</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="2"/>
+        <v>2017</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" ca="1" si="3"/>
+        <v>2796</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
